--- a/study2/analysis/balance/balance_collated.xlsx
+++ b/study2/analysis/balance/balance_collated.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28080" yWindow="1600" windowWidth="25040" windowHeight="13980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="28080" yWindow="1600" windowWidth="25040" windowHeight="13980" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="10" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>participant</t>
   </si>
@@ -99,8 +100,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -117,19 +120,21 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3322,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4469,6 +4474,1170 @@
       <c r="G41">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>IF(raw!C2&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>IF(raw!D2&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>IF(raw!E2&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>IF(raw!F2&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SUM(C2:F2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>IF(raw!C3&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>IF(raw!D3&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>IF(raw!E3&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>IF(raw!F3&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G41" si="0">SUM(C3:F3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>IF(raw!C4&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>IF(raw!D4&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>IF(raw!E4&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>IF(raw!F4&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>IF(raw!C5&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>IF(raw!D5&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>IF(raw!E5&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>IF(raw!F5&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>IF(raw!C6&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>IF(raw!D6&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>IF(raw!E6&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>IF(raw!F6&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>IF(raw!C7&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>IF(raw!D7&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>IF(raw!E7&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>IF(raw!F7&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>IF(raw!C8&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>IF(raw!D8&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>IF(raw!E8&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>IF(raw!F8&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f>IF(raw!C9&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>IF(raw!D9&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>IF(raw!E9&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>IF(raw!F9&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f>IF(raw!C10&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>IF(raw!D10&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>IF(raw!E10&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>IF(raw!F10&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <f>IF(raw!C11&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f>IF(raw!D11&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>IF(raw!E11&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>IF(raw!F11&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f>IF(raw!C12&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>IF(raw!D12&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f>IF(raw!E12&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>IF(raw!F12&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f>IF(raw!C13&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>IF(raw!D13&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>IF(raw!E13&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>IF(raw!F13&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>IF(raw!C14&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>IF(raw!D14&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>IF(raw!E14&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>IF(raw!F14&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f>IF(raw!C15&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f>IF(raw!D15&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>IF(raw!E15&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>IF(raw!F15&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f>IF(raw!C16&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f>IF(raw!D16&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>IF(raw!E16&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>IF(raw!F16&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>IF(raw!C17&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>IF(raw!D17&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>IF(raw!E17&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>IF(raw!F17&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f>IF(raw!C18&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>IF(raw!D18&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>IF(raw!E18&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f>IF(raw!F18&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f>IF(raw!C19&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>IF(raw!D19&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f>IF(raw!E19&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>IF(raw!F19&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <f>IF(raw!C20&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>IF(raw!D20&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>IF(raw!E20&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>IF(raw!F20&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f>IF(raw!C21&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>IF(raw!D21&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f>IF(raw!E21&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f>IF(raw!F21&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <f>IF(raw!C22&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>IF(raw!D22&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>IF(raw!E22&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>IF(raw!F22&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f>IF(raw!C23&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f>IF(raw!D23&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f>IF(raw!E23&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>IF(raw!F23&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <f>IF(raw!C24&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f>IF(raw!D24&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f>IF(raw!E24&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f>IF(raw!F24&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f>IF(raw!C25&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f>IF(raw!D25&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f>IF(raw!E25&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>IF(raw!F25&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f>IF(raw!C26&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>IF(raw!D26&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f>IF(raw!E26&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>IF(raw!F26&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f>IF(raw!C27&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f>IF(raw!D27&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>IF(raw!E27&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f>IF(raw!F27&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <f>IF(raw!C28&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f>IF(raw!D28&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f>IF(raw!E28&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f>IF(raw!F28&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <f>IF(raw!C29&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f>IF(raw!D29&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f>IF(raw!E29&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>IF(raw!F29&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <f>IF(raw!C30&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>IF(raw!D30&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f>IF(raw!E30&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f>IF(raw!F30&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f>IF(raw!C31&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f>IF(raw!D31&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f>IF(raw!E31&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>IF(raw!F31&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f>IF(raw!C32&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f>IF(raw!D32&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f>IF(raw!E32&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f>IF(raw!F32&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <f>IF(raw!C33&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f>IF(raw!D33&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f>IF(raw!E33&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>IF(raw!F33&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <f>IF(raw!C34&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f>IF(raw!D34&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f>IF(raw!E34&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f>IF(raw!F34&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <f>IF(raw!C35&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f>IF(raw!D35&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f>IF(raw!E35&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>IF(raw!F35&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f>IF(raw!C36&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f>IF(raw!D36&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f>IF(raw!E36&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f>IF(raw!F36&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <f>IF(raw!C37&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f>IF(raw!D37&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f>IF(raw!E37&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>IF(raw!F37&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f>IF(raw!C38&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f>IF(raw!D38&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>IF(raw!E38&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>IF(raw!F38&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <f>IF(raw!C39&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f>IF(raw!D39&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>IF(raw!E39&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>IF(raw!F39&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <f>IF(raw!C40&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f>IF(raw!D40&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f>IF(raw!E40&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f>IF(raw!F40&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <f>IF(raw!C41&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f>IF(raw!D41&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f>IF(raw!E41&gt;3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f>IF(raw!F41&gt;3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
